--- a/Income/MAA_inc.xlsx
+++ b/Income/MAA_inc.xlsx
@@ -2320,16 +2320,16 @@
         <v>0.1496</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1898</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.202</v>
+        <v>0.2021</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1948</v>
+        <v>0.1949</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2132</v>
+        <v>0.2134</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1614</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1832</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2055</v>
@@ -2450,10 +2450,10 @@
         <v>0.3037</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3076</v>
+        <v>0.3075</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3124</v>
+        <v>0.3123</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.334</v>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.0</v>
+        <v>0.5605</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.563</v>
@@ -4115,22 +4115,22 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4821</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.4916</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.4814</v>
+        <v>0.4813</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.4827</v>
+        <v>0.4826</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0.475</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.4763</v>
+        <v>0.4762</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.4652</v>
